--- a/F29_DON_EDUARDO_AT2021.xlsx
+++ b/F29_DON_EDUARDO_AT2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\CENTRAL DOGMA\Contabilidades\F29-AT2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XIAMI_REDMI_9\proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38927D0-AB2F-4A24-90F8-BF4E6CE6DC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F492D3B-44A2-4B6C-AD83-951C10C8047E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F29-20" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>563</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>SERVICIOS DE MANTENIMIENTODON EDUARDO LIMITADA - RUT 76413795-7</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2855,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4806,6 +4809,9 @@
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
+      <c r="E20" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="AE20" s="53"/>
